--- a/backend/templates/imports/plan_estudios.xlsx
+++ b/backend/templates/imports/plan_estudios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piniw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\SISTEMA-ACADEMICO_DEV\backend\templates\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475F113D-C284-4C17-9450-DBEB2F1C7F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AD983B-F00E-49FA-85FD-7551352E6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BFAFC3F3-9963-4AA7-99AB-0B05C5417A9B}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{BFAFC3F3-9963-4AA7-99AB-0B05C5417A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="INICIAL 2020" sheetId="12" r:id="rId1"/>
@@ -36,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -568,9 +571,6 @@
   </si>
   <si>
     <t>Tarma</t>
-  </si>
-  <si>
-    <t>PLANTILLA DE CALIFICACIONES</t>
   </si>
   <si>
     <t>"Gustavo Allende Llaveria"</t>
@@ -645,12 +645,15 @@
   <si>
     <t xml:space="preserve">                                               Tarma</t>
   </si>
+  <si>
+    <t xml:space="preserve">PLANTILLA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,42 +1215,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,7 +1227,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1269,8 +1242,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +1335,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8789880" y="1815353"/>
+          <a:off x="8789880" y="1378323"/>
           <a:ext cx="2270327" cy="2243860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1843,20 +1846,20 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="15"/>
       <c r="C2" s="20"/>
@@ -1865,52 +1868,52 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="46.5">
-      <c r="A3" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="48.75">
-      <c r="A4" s="76" t="s">
+    <row r="3" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="6" spans="1:11" ht="46.5">
-      <c r="A6" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="6" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -1919,7 +1922,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
@@ -1928,22 +1931,22 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="46.5">
-      <c r="A9" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75">
+    <row r="9" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="15"/>
       <c r="C11" s="20" t="s">
@@ -1954,7 +1957,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>167</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>56</v>
       </c>
@@ -2004,7 +2007,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>56</v>
       </c>
@@ -2025,7 +2028,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>56</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>56</v>
       </c>
@@ -2067,7 +2070,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>56</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>51</v>
       </c>
@@ -2133,7 +2136,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>51</v>
       </c>
@@ -2154,7 +2157,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2178,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>51</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>51</v>
       </c>
@@ -2217,7 +2220,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>51</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>52</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>52</v>
       </c>
@@ -2283,7 +2286,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>52</v>
       </c>
@@ -2304,7 +2307,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>52</v>
       </c>
@@ -2325,7 +2328,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>52</v>
       </c>
@@ -2346,7 +2349,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>52</v>
       </c>
@@ -2367,7 +2370,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>52</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>53</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>53</v>
       </c>
@@ -2433,7 +2436,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>53</v>
       </c>
@@ -2454,7 +2457,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>53</v>
       </c>
@@ -2475,7 +2478,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>53</v>
       </c>
@@ -2496,7 +2499,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>53</v>
       </c>
@@ -2517,7 +2520,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>53</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>159</v>
       </c>
@@ -2562,7 +2565,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
         <v>159</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
         <v>159</v>
       </c>
@@ -2604,7 +2607,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
         <v>159</v>
       </c>
@@ -2625,7 +2628,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>159</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53" t="s">
         <v>159</v>
       </c>
@@ -2667,7 +2670,7 @@
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>159</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2715,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>6</v>
       </c>
@@ -2733,7 +2736,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2757,7 @@
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>6</v>
       </c>
@@ -2775,7 +2778,7 @@
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>6</v>
       </c>
@@ -2796,7 +2799,7 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>6</v>
       </c>
@@ -2817,7 +2820,7 @@
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>54</v>
       </c>
@@ -2862,7 +2865,7 @@
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>54</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
         <v>54</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
         <v>54</v>
       </c>
@@ -2925,7 +2928,7 @@
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
         <v>54</v>
       </c>
@@ -2946,7 +2949,7 @@
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
         <v>54</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="53" t="s">
         <v>55</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>55</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>55</v>
       </c>
@@ -3033,7 +3036,7 @@
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>55</v>
       </c>
@@ -3054,7 +3057,7 @@
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>55</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="32.25" customHeight="1">
+    <row r="65" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
         <v>7</v>
       </c>
@@ -3099,7 +3102,7 @@
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
     </row>
-    <row r="66" spans="1:9" ht="39" customHeight="1">
+    <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="37.5" customHeight="1">
+    <row r="67" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3147,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:9" ht="33" customHeight="1">
+    <row r="68" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>8</v>
       </c>
@@ -3185,10 +3188,10 @@
   <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -3202,10 +3205,10 @@
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="15"/>
       <c r="C2" s="20"/>
@@ -3214,53 +3217,53 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A3" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1">
-      <c r="A4" s="76" t="s">
+    <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1"/>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.149999999999999" customHeight="1">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -3269,7 +3272,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="2.25" customHeight="1">
+    <row r="8" spans="1:11" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="15"/>
       <c r="C8" s="20"/>
@@ -3278,35 +3281,35 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25" customHeight="1">
-      <c r="A9" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.149999999999999" customHeight="1"/>
-    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1"/>
-    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="15"/>
       <c r="D13" s="17"/>
@@ -3314,7 +3317,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>167</v>
       </c>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>56</v>
       </c>
@@ -3366,7 +3369,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>56</v>
       </c>
@@ -3388,7 +3391,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="17" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>56</v>
       </c>
@@ -3410,7 +3413,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="18" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>56</v>
       </c>
@@ -3432,7 +3435,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="19" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>56</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="20" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>56</v>
       </c>
@@ -3479,7 +3482,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="21" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3504,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="22" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>51</v>
       </c>
@@ -3523,7 +3526,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="23" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56" t="s">
         <v>51</v>
       </c>
@@ -3545,7 +3548,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="24" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>51</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="25" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>51</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="26" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>51</v>
       </c>
@@ -3614,7 +3617,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="27" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +3639,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="28" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>52</v>
       </c>
@@ -3658,7 +3661,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="29" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>52</v>
       </c>
@@ -3680,7 +3683,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="30" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56" t="s">
         <v>52</v>
       </c>
@@ -3710,7 +3713,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="31" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>52</v>
       </c>
@@ -3730,7 +3733,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="68"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="14"/>
       <c r="L31" s="11"/>
       <c r="M31" s="15"/>
@@ -3740,7 +3743,7 @@
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="32" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>52</v>
       </c>
@@ -3760,7 +3763,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="14"/>
       <c r="L32" s="11"/>
       <c r="M32" s="15"/>
@@ -3770,7 +3773,7 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
     </row>
-    <row r="33" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="33" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>52</v>
       </c>
@@ -3793,7 +3796,7 @@
         <f>SUM(E29+E27+E28+E30+E31+E32+E33)</f>
         <v>23</v>
       </c>
-      <c r="J33" s="68"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="14"/>
       <c r="L33" s="11"/>
       <c r="M33" s="15"/>
@@ -3803,7 +3806,7 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
     </row>
-    <row r="34" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="34" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3826,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="68"/>
+      <c r="J34" s="80"/>
       <c r="K34" s="14"/>
       <c r="L34" s="11"/>
       <c r="M34" s="15"/>
@@ -3833,7 +3836,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
     </row>
-    <row r="35" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="35" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>53</v>
       </c>
@@ -3853,7 +3856,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="68"/>
+      <c r="J35" s="80"/>
       <c r="K35" s="14"/>
       <c r="L35" s="11"/>
       <c r="M35" s="15"/>
@@ -3863,7 +3866,7 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
     </row>
-    <row r="36" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="36" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
         <v>53</v>
       </c>
@@ -3883,7 +3886,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="68"/>
+      <c r="J36" s="80"/>
       <c r="K36" s="14"/>
       <c r="L36" s="11"/>
       <c r="M36" s="15"/>
@@ -3893,7 +3896,7 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
     </row>
-    <row r="37" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="37" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>53</v>
       </c>
@@ -3913,7 +3916,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="68"/>
+      <c r="J37" s="80"/>
       <c r="K37" s="14"/>
       <c r="L37" s="11"/>
       <c r="M37" s="15"/>
@@ -3923,7 +3926,7 @@
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="38" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>53</v>
       </c>
@@ -3943,7 +3946,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="68"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="14"/>
       <c r="L38" s="11"/>
       <c r="M38" s="15"/>
@@ -3953,7 +3956,7 @@
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
     </row>
-    <row r="39" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="39" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>53</v>
       </c>
@@ -3973,7 +3976,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="68"/>
+      <c r="J39" s="80"/>
       <c r="K39" s="14"/>
       <c r="L39" s="11"/>
       <c r="M39" s="15"/>
@@ -3983,7 +3986,7 @@
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="40" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>53</v>
       </c>
@@ -4006,7 +4009,7 @@
         <f>SUM(E34+E35+E36+E37+E38+E39+E40)</f>
         <v>23</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="80"/>
       <c r="K40" s="14"/>
       <c r="L40" s="11"/>
       <c r="M40" s="15"/>
@@ -4016,7 +4019,7 @@
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
     </row>
-    <row r="41" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="41" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>159</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="68"/>
+      <c r="J41" s="80"/>
       <c r="K41" s="14"/>
       <c r="L41" s="11"/>
       <c r="M41" s="15"/>
@@ -4046,7 +4049,7 @@
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
     </row>
-    <row r="42" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="42" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>159</v>
       </c>
@@ -4066,7 +4069,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="68"/>
+      <c r="J42" s="80"/>
       <c r="K42" s="14"/>
       <c r="L42" s="11"/>
       <c r="M42" s="15"/>
@@ -4076,7 +4079,7 @@
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="43" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56" t="s">
         <v>159</v>
       </c>
@@ -4096,7 +4099,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="68"/>
+      <c r="J43" s="80"/>
       <c r="K43" s="14"/>
       <c r="L43" s="11"/>
       <c r="M43" s="15"/>
@@ -4106,7 +4109,7 @@
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="19.149999999999999" customHeight="1">
+    <row r="44" spans="1:18" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>159</v>
       </c>
@@ -4126,7 +4129,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="68"/>
+      <c r="J44" s="80"/>
       <c r="K44" s="14"/>
       <c r="L44" s="11"/>
       <c r="M44" s="15"/>
@@ -4136,7 +4139,7 @@
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="18" customHeight="1">
+    <row r="45" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>159</v>
       </c>
@@ -4156,7 +4159,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="68"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="14"/>
       <c r="L45" s="11"/>
       <c r="M45" s="15"/>
@@ -4166,7 +4169,7 @@
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="18" customHeight="1">
+    <row r="46" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
         <v>159</v>
       </c>
@@ -4186,7 +4189,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="68"/>
+      <c r="J46" s="80"/>
       <c r="K46" s="14"/>
       <c r="L46" s="11"/>
       <c r="M46" s="15"/>
@@ -4196,7 +4199,7 @@
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="21.6" customHeight="1">
+    <row r="47" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
         <v>159</v>
       </c>
@@ -4219,7 +4222,7 @@
         <f>SUM(E41+E42+E43+E44+E45+E46+E47)</f>
         <v>23</v>
       </c>
-      <c r="J47" s="68"/>
+      <c r="J47" s="80"/>
       <c r="K47" s="14"/>
       <c r="L47" s="11"/>
       <c r="M47" s="15"/>
@@ -4229,7 +4232,7 @@
       <c r="Q47" s="17"/>
       <c r="R47" s="17"/>
     </row>
-    <row r="48" spans="1:18" ht="28.15" customHeight="1">
+    <row r="48" spans="1:18" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56" t="s">
         <v>158</v>
       </c>
@@ -4249,7 +4252,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="68"/>
+      <c r="J48" s="80"/>
       <c r="K48" s="14"/>
       <c r="L48" s="11"/>
       <c r="M48" s="15"/>
@@ -4259,7 +4262,7 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56" t="s">
         <v>158</v>
       </c>
@@ -4279,7 +4282,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="68"/>
+      <c r="J49" s="80"/>
       <c r="K49" s="14"/>
       <c r="L49" s="11"/>
       <c r="M49" s="15"/>
@@ -4289,7 +4292,7 @@
       <c r="Q49" s="17"/>
       <c r="R49" s="17"/>
     </row>
-    <row r="50" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
         <v>158</v>
       </c>
@@ -4309,7 +4312,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="68"/>
+      <c r="J50" s="80"/>
       <c r="K50" s="14"/>
       <c r="L50" s="11"/>
       <c r="M50" s="15"/>
@@ -4319,7 +4322,7 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
         <v>158</v>
       </c>
@@ -4339,7 +4342,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="68"/>
+      <c r="J51" s="80"/>
       <c r="K51" s="14"/>
       <c r="L51" s="11"/>
       <c r="M51" s="15"/>
@@ -4349,7 +4352,7 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
         <v>158</v>
       </c>
@@ -4369,7 +4372,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="68"/>
+      <c r="J52" s="80"/>
       <c r="K52" s="14"/>
       <c r="L52" s="11"/>
       <c r="M52" s="15"/>
@@ -4379,7 +4382,7 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
     </row>
-    <row r="53" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56" t="s">
         <v>158</v>
       </c>
@@ -4399,7 +4402,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="68"/>
+      <c r="J53" s="80"/>
       <c r="K53" s="14"/>
       <c r="L53" s="11"/>
       <c r="M53" s="15"/>
@@ -4409,7 +4412,7 @@
       <c r="Q53" s="17"/>
       <c r="R53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
         <v>158</v>
       </c>
@@ -4432,7 +4435,7 @@
         <f>SUM(E48+E49+E50+E51+E52+E53+E54)</f>
         <v>23</v>
       </c>
-      <c r="J54" s="68"/>
+      <c r="J54" s="80"/>
       <c r="K54" s="14"/>
       <c r="L54" s="11"/>
       <c r="M54" s="15"/>
@@ -4442,7 +4445,7 @@
       <c r="Q54" s="17"/>
       <c r="R54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>54</v>
       </c>
@@ -4462,7 +4465,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="68"/>
+      <c r="J55" s="80"/>
       <c r="K55" s="14"/>
       <c r="L55" s="11"/>
       <c r="M55" s="15"/>
@@ -4472,7 +4475,7 @@
       <c r="Q55" s="17"/>
       <c r="R55" s="17"/>
     </row>
-    <row r="56" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4495,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="68"/>
+      <c r="J56" s="80"/>
       <c r="K56" s="14"/>
       <c r="L56" s="11"/>
       <c r="M56" s="15"/>
@@ -4502,7 +4505,7 @@
       <c r="Q56" s="17"/>
       <c r="R56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="57" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
         <v>54</v>
       </c>
@@ -4522,7 +4525,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="68"/>
+      <c r="J57" s="80"/>
       <c r="K57" s="14"/>
       <c r="L57" s="11"/>
       <c r="M57" s="15"/>
@@ -4532,7 +4535,7 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56" t="s">
         <v>54</v>
       </c>
@@ -4552,7 +4555,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="68"/>
+      <c r="J58" s="80"/>
       <c r="K58" s="14"/>
       <c r="L58" s="11"/>
       <c r="M58" s="15"/>
@@ -4562,7 +4565,7 @@
       <c r="Q58" s="17"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="59" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56" t="s">
         <v>54</v>
       </c>
@@ -4582,7 +4585,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="68"/>
+      <c r="J59" s="80"/>
       <c r="K59" s="14"/>
       <c r="L59" s="11"/>
       <c r="M59" s="15"/>
@@ -4592,7 +4595,7 @@
       <c r="Q59" s="17"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="60" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
         <v>54</v>
       </c>
@@ -4615,7 +4618,7 @@
         <f>SUM(E55+E56+E57+E58+E59+E60)</f>
         <v>22</v>
       </c>
-      <c r="J60" s="68"/>
+      <c r="J60" s="80"/>
       <c r="K60" s="14"/>
       <c r="L60" s="11"/>
       <c r="M60" s="15"/>
@@ -4625,7 +4628,7 @@
       <c r="Q60" s="17"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>55</v>
       </c>
@@ -4645,7 +4648,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="68"/>
+      <c r="J61" s="80"/>
       <c r="K61" s="14"/>
       <c r="L61" s="11"/>
       <c r="M61" s="15"/>
@@ -4655,7 +4658,7 @@
       <c r="Q61" s="17"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +4678,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="68"/>
+      <c r="J62" s="80"/>
       <c r="K62" s="14"/>
       <c r="L62" s="11"/>
       <c r="M62" s="15"/>
@@ -4685,7 +4688,7 @@
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="63" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>55</v>
       </c>
@@ -4705,7 +4708,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="68"/>
+      <c r="J63" s="80"/>
       <c r="K63" s="14"/>
       <c r="L63" s="11"/>
       <c r="M63" s="15"/>
@@ -4715,7 +4718,7 @@
       <c r="Q63" s="17"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="64" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>55</v>
       </c>
@@ -4735,7 +4738,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="68"/>
+      <c r="J64" s="80"/>
       <c r="K64" s="14"/>
       <c r="L64" s="11"/>
       <c r="M64" s="15"/>
@@ -4745,7 +4748,7 @@
       <c r="Q64" s="17"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="65" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>55</v>
       </c>
@@ -4768,7 +4771,7 @@
         <f>SUM(E61+E62+E63+E64+E65)</f>
         <v>22</v>
       </c>
-      <c r="J65" s="68"/>
+      <c r="J65" s="80"/>
       <c r="K65" s="14"/>
       <c r="L65" s="11"/>
       <c r="M65" s="15"/>
@@ -4778,7 +4781,7 @@
       <c r="Q65" s="17"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" spans="1:18" ht="43.5" customHeight="1">
+    <row r="66" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>7</v>
       </c>
@@ -4798,7 +4801,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="68"/>
+      <c r="J66" s="80"/>
       <c r="K66" s="14"/>
       <c r="L66" s="11"/>
       <c r="M66" s="15"/>
@@ -4808,7 +4811,7 @@
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="1:18" ht="37.5" customHeight="1">
+    <row r="67" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +4834,7 @@
         <f>SUM(E66+E67)</f>
         <v>18</v>
       </c>
-      <c r="J67" s="68"/>
+      <c r="J67" s="80"/>
       <c r="K67" s="14"/>
       <c r="L67" s="11"/>
       <c r="M67" s="15"/>
@@ -4841,7 +4844,7 @@
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
     </row>
-    <row r="68" spans="1:18" ht="45" customHeight="1">
+    <row r="68" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>8</v>
       </c>
@@ -4861,7 +4864,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="68"/>
+      <c r="J68" s="80"/>
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
       <c r="M68" s="15"/>
@@ -4871,7 +4874,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:18" ht="45" customHeight="1">
+    <row r="69" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +4897,7 @@
         <f>SUM(E68+E69)</f>
         <v>18</v>
       </c>
-      <c r="J69" s="68"/>
+      <c r="J69" s="80"/>
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
       <c r="M69" s="15"/>
@@ -4904,7 +4907,7 @@
       <c r="Q69" s="17"/>
       <c r="R69" s="17"/>
     </row>
-    <row r="70" spans="1:18" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="1:18" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="15"/>
       <c r="C70" s="16"/>
@@ -4914,7 +4917,7 @@
       <c r="G70" s="16"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="68"/>
+      <c r="J70" s="80"/>
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
       <c r="M70" s="15"/>
@@ -4924,8 +4927,8 @@
       <c r="Q70" s="17"/>
       <c r="R70" s="17"/>
     </row>
-    <row r="71" spans="1:18" ht="12.95" customHeight="1">
-      <c r="J71" s="67"/>
+    <row r="71" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="78"/>
       <c r="K71" s="14"/>
       <c r="L71" s="11"/>
       <c r="M71" s="15"/>
@@ -4935,8 +4938,8 @@
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
     </row>
-    <row r="72" spans="1:18">
-      <c r="J72" s="67"/>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J72" s="78"/>
       <c r="K72" s="14"/>
       <c r="L72" s="11"/>
       <c r="M72" s="15"/>
@@ -4946,15 +4949,15 @@
       <c r="Q72" s="17"/>
       <c r="R72" s="17"/>
     </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="J73" s="67"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="J73" s="78"/>
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
       <c r="M73" s="15"/>
@@ -4964,14 +4967,14 @@
       <c r="Q73" s="17"/>
       <c r="R73" s="17"/>
     </row>
-    <row r="74" spans="1:18" ht="23.25" customHeight="1">
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="J74" s="67"/>
+    <row r="74" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="J74" s="78"/>
       <c r="K74" s="14"/>
       <c r="L74" s="11"/>
       <c r="M74" s="15"/>
@@ -4981,9 +4984,9 @@
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
     </row>
-    <row r="75" spans="1:18" ht="13.5" customHeight="1">
+    <row r="75" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="J75" s="67"/>
+      <c r="J75" s="78"/>
       <c r="K75" s="14"/>
       <c r="L75" s="11"/>
       <c r="M75" s="15"/>
@@ -4993,9 +4996,9 @@
       <c r="Q75" s="17"/>
       <c r="R75" s="17"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="78"/>
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
       <c r="M76" s="15"/>
@@ -5005,8 +5008,8 @@
       <c r="Q76" s="17"/>
       <c r="R76" s="17"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1">
-      <c r="J77" s="67"/>
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="78"/>
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
       <c r="M77" s="15"/>
@@ -5016,8 +5019,8 @@
       <c r="Q77" s="17"/>
       <c r="R77" s="17"/>
     </row>
-    <row r="78" spans="1:18">
-      <c r="J78" s="67"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J78" s="78"/>
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
       <c r="M78" s="15"/>
@@ -5027,8 +5030,8 @@
       <c r="Q78" s="17"/>
       <c r="R78" s="17"/>
     </row>
-    <row r="79" spans="1:18">
-      <c r="J79" s="67"/>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J79" s="78"/>
       <c r="K79" s="14"/>
       <c r="L79" s="11"/>
       <c r="M79" s="15"/>
@@ -5038,8 +5041,8 @@
       <c r="Q79" s="17"/>
       <c r="R79" s="17"/>
     </row>
-    <row r="80" spans="1:18">
-      <c r="J80" s="67"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J80" s="78"/>
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
       <c r="M80" s="15"/>
@@ -5049,8 +5052,8 @@
       <c r="Q80" s="17"/>
       <c r="R80" s="17"/>
     </row>
-    <row r="81" spans="10:18">
-      <c r="J81" s="67"/>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J81" s="78"/>
       <c r="K81" s="14"/>
       <c r="L81" s="11"/>
       <c r="M81" s="15"/>
@@ -5060,8 +5063,8 @@
       <c r="Q81" s="17"/>
       <c r="R81" s="17"/>
     </row>
-    <row r="82" spans="10:18" ht="15" customHeight="1">
-      <c r="J82" s="71"/>
+    <row r="82" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="79"/>
       <c r="K82" s="14"/>
       <c r="L82" s="11"/>
       <c r="M82" s="15"/>
@@ -5071,8 +5074,8 @@
       <c r="Q82" s="17"/>
       <c r="R82" s="17"/>
     </row>
-    <row r="83" spans="10:18">
-      <c r="J83" s="71"/>
+    <row r="83" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J83" s="79"/>
       <c r="K83" s="14"/>
       <c r="L83" s="11"/>
       <c r="M83" s="15"/>
@@ -5082,8 +5085,8 @@
       <c r="Q83" s="17"/>
       <c r="R83" s="17"/>
     </row>
-    <row r="84" spans="10:18" ht="15" customHeight="1">
-      <c r="J84" s="71"/>
+    <row r="84" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="79"/>
       <c r="K84" s="14"/>
       <c r="L84" s="11"/>
       <c r="M84" s="15"/>
@@ -5093,8 +5096,8 @@
       <c r="Q84" s="17"/>
       <c r="R84" s="17"/>
     </row>
-    <row r="85" spans="10:18">
-      <c r="J85" s="71"/>
+    <row r="85" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J85" s="79"/>
       <c r="K85" s="14"/>
       <c r="L85" s="11"/>
       <c r="M85" s="15"/>
@@ -5106,11 +5109,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A73:G73"/>
     <mergeCell ref="J77:J81"/>
     <mergeCell ref="J82:J83"/>
     <mergeCell ref="J84:J85"/>
@@ -5118,11 +5121,11 @@
     <mergeCell ref="J57:J63"/>
     <mergeCell ref="J64:J70"/>
     <mergeCell ref="J71:J76"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.15" top="0.3" bottom="0.2" header="0.31496062992125984" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -5139,10 +5142,10 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -5154,10 +5157,10 @@
     <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="15"/>
       <c r="C2" s="20"/>
@@ -5166,52 +5169,52 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="46.5">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="48.75">
-      <c r="A4" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A5" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20"/>
@@ -5220,7 +5223,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -5229,27 +5232,27 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="46.5">
-      <c r="A8" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-    </row>
-    <row r="9" spans="1:11" ht="42.6" customHeight="1">
+    <row r="8" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1">
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>167</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>56</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>56</v>
       </c>
@@ -5322,7 +5325,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>56</v>
       </c>
@@ -5344,7 +5347,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>56</v>
       </c>
@@ -5366,7 +5369,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>56</v>
       </c>
@@ -5388,7 +5391,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
         <v>56</v>
       </c>
@@ -5413,7 +5416,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>164</v>
       </c>
@@ -5435,7 +5438,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>164</v>
       </c>
@@ -5457,7 +5460,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>164</v>
       </c>
@@ -5479,7 +5482,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>164</v>
       </c>
@@ -5501,7 +5504,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>164</v>
       </c>
@@ -5523,7 +5526,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>164</v>
       </c>
@@ -5548,7 +5551,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>165</v>
       </c>
@@ -5570,7 +5573,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>165</v>
       </c>
@@ -5592,7 +5595,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>165</v>
       </c>
@@ -5614,7 +5617,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>165</v>
       </c>
@@ -5636,7 +5639,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>165</v>
       </c>
@@ -5658,7 +5661,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
         <v>165</v>
       </c>
@@ -5680,7 +5683,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>165</v>
       </c>
@@ -5705,7 +5708,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>53</v>
       </c>
@@ -5727,7 +5730,7 @@
       <c r="I30" s="34"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>53</v>
       </c>
@@ -5749,7 +5752,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>53</v>
       </c>
@@ -5772,7 +5775,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="33" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>53</v>
       </c>
@@ -5795,7 +5798,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
         <v>53</v>
       </c>
@@ -5818,7 +5821,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="35" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
         <v>53</v>
       </c>
@@ -5840,7 +5843,7 @@
       <c r="I35" s="27"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="36" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62" t="s">
         <v>53</v>
       </c>
@@ -5865,7 +5868,7 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="37" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>159</v>
       </c>
@@ -5887,7 +5890,7 @@
       <c r="I37" s="48"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="38" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62" t="s">
         <v>159</v>
       </c>
@@ -5909,7 +5912,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="39" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="62" t="s">
         <v>159</v>
       </c>
@@ -5931,7 +5934,7 @@
       <c r="I39" s="27"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62" t="s">
         <v>159</v>
       </c>
@@ -5953,7 +5956,7 @@
       <c r="I40" s="27"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="41" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
         <v>159</v>
       </c>
@@ -5975,7 +5978,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="42" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>159</v>
       </c>
@@ -5997,7 +6000,7 @@
       <c r="I42" s="43"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="43" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
         <v>159</v>
       </c>
@@ -6022,7 +6025,7 @@
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="44" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>158</v>
       </c>
@@ -6045,7 +6048,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="45" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>158</v>
       </c>
@@ -6068,7 +6071,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="46" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>158</v>
       </c>
@@ -6091,7 +6094,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="47" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>158</v>
       </c>
@@ -6114,7 +6117,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="48" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>158</v>
       </c>
@@ -6137,7 +6140,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="49" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>158</v>
       </c>
@@ -6160,7 +6163,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="50" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>158</v>
       </c>
@@ -6186,7 +6189,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="51" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>54</v>
       </c>
@@ -6209,7 +6212,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="52" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>54</v>
       </c>
@@ -6232,7 +6235,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="53" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>54</v>
       </c>
@@ -6255,7 +6258,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="54" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>54</v>
       </c>
@@ -6278,7 +6281,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="55" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>54</v>
       </c>
@@ -6301,7 +6304,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="56" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
         <v>54</v>
       </c>
@@ -6327,7 +6330,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="57" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
         <v>55</v>
       </c>
@@ -6350,7 +6353,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="58" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>55</v>
       </c>
@@ -6373,7 +6376,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="59" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="65" t="s">
         <v>55</v>
       </c>
@@ -6396,7 +6399,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="60" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>55</v>
       </c>
@@ -6418,7 +6421,7 @@
       <c r="I60" s="43"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="61" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="65" t="s">
         <v>55</v>
       </c>
@@ -6444,7 +6447,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="29.25" customHeight="1">
+    <row r="62" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
         <v>7</v>
       </c>
@@ -6467,7 +6470,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
+    <row r="63" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="66" t="s">
         <v>7</v>
       </c>
@@ -6493,7 +6496,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="64" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>8</v>
       </c>
@@ -6516,7 +6519,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
         <v>8</v>
       </c>
@@ -6542,37 +6545,37 @@
       <c r="J65" s="4"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="12.95" customHeight="1"/>
-    <row r="68" spans="1:11">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-    </row>
-    <row r="69" spans="1:11" ht="28.9" customHeight="1">
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-    </row>
-    <row r="70" spans="1:11" ht="13.5" customHeight="1">
+    <row r="66" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+    </row>
+    <row r="69" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+    </row>
+    <row r="70" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-    </row>
-    <row r="93" spans="6:6">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="83"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>9</v>
       </c>
@@ -6601,10 +6604,10 @@
   <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
@@ -6617,10 +6620,10 @@
     <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="15"/>
       <c r="C2" s="20"/>
@@ -6629,52 +6632,52 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="46.5">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:11" ht="48.75">
-      <c r="A4" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="46.5">
-      <c r="A5" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="15"/>
       <c r="C6" s="20"/>
@@ -6683,7 +6686,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="20"/>
@@ -6692,27 +6695,27 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="46.5">
-      <c r="A8" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-    </row>
-    <row r="9" spans="1:11" ht="42.6" customHeight="1">
+    <row r="8" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" customHeight="1">
+    <row r="10" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>167</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="11" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>56</v>
       </c>
@@ -6763,7 +6766,7 @@
       <c r="I11" s="34"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="12" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>56</v>
       </c>
@@ -6785,7 +6788,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="13" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>56</v>
       </c>
@@ -6807,7 +6810,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>56</v>
       </c>
@@ -6829,7 +6832,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>56</v>
       </c>
@@ -6851,7 +6854,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="16" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>56</v>
       </c>
@@ -6876,7 +6879,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>51</v>
       </c>
@@ -6898,7 +6901,7 @@
       <c r="I17" s="34"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>51</v>
       </c>
@@ -6920,7 +6923,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
         <v>51</v>
       </c>
@@ -6942,7 +6945,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="20" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="59" t="s">
         <v>51</v>
       </c>
@@ -6964,7 +6967,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>51</v>
       </c>
@@ -6986,7 +6989,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
         <v>51</v>
       </c>
@@ -7011,7 +7014,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="23" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>52</v>
       </c>
@@ -7033,7 +7036,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="59" t="s">
         <v>52</v>
       </c>
@@ -7055,7 +7058,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="59" t="s">
         <v>52</v>
       </c>
@@ -7077,7 +7080,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>52</v>
       </c>
@@ -7099,7 +7102,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="27" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
         <v>52</v>
       </c>
@@ -7121,7 +7124,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="28" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>52</v>
       </c>
@@ -7143,7 +7146,7 @@
       <c r="I28" s="43"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="29" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>52</v>
       </c>
@@ -7168,7 +7171,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="30" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>160</v>
       </c>
@@ -7190,7 +7193,7 @@
       <c r="I30" s="34"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="31" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>160</v>
       </c>
@@ -7212,7 +7215,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="s">
         <v>160</v>
       </c>
@@ -7235,7 +7238,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="33" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>160</v>
       </c>
@@ -7257,7 +7260,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="34" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="59" t="s">
         <v>160</v>
       </c>
@@ -7279,7 +7282,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="35" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59" t="s">
         <v>160</v>
       </c>
@@ -7301,7 +7304,7 @@
       <c r="I35" s="43"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="36" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="59" t="s">
         <v>160</v>
       </c>
@@ -7326,7 +7329,7 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="37" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="59" t="s">
         <v>159</v>
       </c>
@@ -7348,7 +7351,7 @@
       <c r="I37" s="48"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="38" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="59" t="s">
         <v>159</v>
       </c>
@@ -7370,7 +7373,7 @@
       <c r="I38" s="27"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="39" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>159</v>
       </c>
@@ -7392,7 +7395,7 @@
       <c r="I39" s="27"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="40" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="59" t="s">
         <v>159</v>
       </c>
@@ -7414,7 +7417,7 @@
       <c r="I40" s="27"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="41" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="59" t="s">
         <v>159</v>
       </c>
@@ -7436,7 +7439,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="42" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="59" t="s">
         <v>159</v>
       </c>
@@ -7458,7 +7461,7 @@
       <c r="I42" s="27"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="43" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="59" t="s">
         <v>159</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="18" customHeight="1">
+    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>158</v>
       </c>
@@ -7503,7 +7506,7 @@
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
     </row>
-    <row r="45" spans="1:21" ht="31.9" customHeight="1">
+    <row r="45" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>158</v>
       </c>
@@ -7524,7 +7527,7 @@
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
     </row>
-    <row r="46" spans="1:21" ht="19.149999999999999" customHeight="1">
+    <row r="46" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>158</v>
       </c>
@@ -7548,7 +7551,7 @@
       <c r="K46" s="3"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="19.149999999999999" customHeight="1">
+    <row r="47" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>158</v>
       </c>
@@ -7572,7 +7575,7 @@
       <c r="K47" s="3"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="19.149999999999999" customHeight="1">
+    <row r="48" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>158</v>
       </c>
@@ -7596,7 +7599,7 @@
       <c r="K48" s="3"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="19.149999999999999" customHeight="1">
+    <row r="49" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>158</v>
       </c>
@@ -7620,7 +7623,7 @@
       <c r="K49" s="3"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="50" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>158</v>
       </c>
@@ -7647,7 +7650,7 @@
       <c r="K50" s="3"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="51" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>54</v>
       </c>
@@ -7671,7 +7674,7 @@
       <c r="K51" s="3"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="52" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62" t="s">
         <v>54</v>
       </c>
@@ -7695,7 +7698,7 @@
       <c r="K52" s="3"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="53" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>54</v>
       </c>
@@ -7719,7 +7722,7 @@
       <c r="K53" s="3"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="54" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>54</v>
       </c>
@@ -7743,7 +7746,7 @@
       <c r="K54" s="3"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="55" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>54</v>
       </c>
@@ -7767,7 +7770,7 @@
       <c r="K55" s="3"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="56" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="62" t="s">
         <v>54</v>
       </c>
@@ -7794,7 +7797,7 @@
       <c r="K56" s="3"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="57" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="63" t="s">
         <v>55</v>
       </c>
@@ -7818,7 +7821,7 @@
       <c r="K57" s="3"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="58" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="63" t="s">
         <v>55</v>
       </c>
@@ -7842,7 +7845,7 @@
       <c r="K58" s="3"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="59" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="s">
         <v>55</v>
       </c>
@@ -7866,7 +7869,7 @@
       <c r="K59" s="3"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="60" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="63" t="s">
         <v>55</v>
       </c>
@@ -7890,7 +7893,7 @@
       <c r="K60" s="3"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1">
+    <row r="61" spans="1:21" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="63" t="s">
         <v>55</v>
       </c>
@@ -7917,7 +7920,7 @@
       <c r="K61" s="3"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="36" customHeight="1">
+    <row r="62" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>7</v>
       </c>
@@ -7941,7 +7944,7 @@
       <c r="K62" s="3"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="48" customHeight="1" thickBot="1">
+    <row r="63" spans="1:21" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="64" t="s">
         <v>7</v>
       </c>
@@ -7967,7 +7970,7 @@
       <c r="J63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="37.5" customHeight="1" thickBot="1">
+    <row r="64" spans="1:21" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="63" t="s">
         <v>8</v>
       </c>
@@ -7991,7 +7994,7 @@
       <c r="K64" s="3"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="47.25" customHeight="1" thickBot="1">
+    <row r="65" spans="1:21" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="63" t="s">
         <v>8</v>
       </c>
@@ -8018,8 +8021,8 @@
       <c r="K65" s="3"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="19.149999999999999" customHeight="1">
-      <c r="A66" s="73"/>
+    <row r="66" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86"/>
       <c r="B66" s="18"/>
       <c r="C66" s="11"/>
       <c r="D66" s="19"/>
@@ -8032,8 +8035,8 @@
       <c r="K66" s="3"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="19.149999999999999" customHeight="1">
-      <c r="A67" s="73"/>
+    <row r="67" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="86"/>
       <c r="B67" s="18"/>
       <c r="C67" s="11"/>
       <c r="D67" s="19"/>
@@ -8046,37 +8049,37 @@
       <c r="K67" s="3"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="12.95" customHeight="1"/>
-    <row r="70" spans="1:21">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-    </row>
-    <row r="71" spans="1:21" ht="28.9" customHeight="1">
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-    </row>
-    <row r="72" spans="1:21" ht="13.5" customHeight="1">
+    <row r="68" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="82"/>
+    </row>
+    <row r="71" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+    </row>
+    <row r="72" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:21">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="72"/>
-    </row>
-    <row r="95" spans="6:6">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="83"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>9</v>
       </c>
